--- a/Output_Efficient_Frontier/portfolio_weights.xlsx
+++ b/Output_Efficient_Frontier/portfolio_weights.xlsx
@@ -591,46 +591,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.264686324470972E-18</v>
       </c>
       <c r="D2">
-        <v>9.678366665187125E-18</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.769803976262969E-17</v>
+        <v>3.760749249696346E-18</v>
       </c>
       <c r="F2">
-        <v>1.063711162058818E-17</v>
+        <v>3.201032525128665E-18</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.288154031807162E-18</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.131975400162614E-17</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.028645651146599E-17</v>
       </c>
       <c r="L2">
-        <v>6.25344699382167E-19</v>
+        <v>7.081879409096753E-18</v>
       </c>
       <c r="M2">
-        <v>9.872606765412629E-18</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.639307355783239E-16</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.177963651011785E-17</v>
       </c>
       <c r="P2">
-        <v>0.4164758516695848</v>
+        <v>0.4164777514271092</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -639,25 +639,25 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>9.753308707158946E-18</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>2.556087772031116E-18</v>
       </c>
       <c r="V2">
-        <v>5.734217303301579E-18</v>
+        <v>1.215216598835599E-18</v>
       </c>
       <c r="W2">
-        <v>0.08907947248130926</v>
+        <v>0.0890799023771337</v>
       </c>
       <c r="X2">
-        <v>0.01376046967531674</v>
+        <v>0.01376072189690682</v>
       </c>
       <c r="Y2">
-        <v>0.4806842061737893</v>
+        <v>0.4806816242988503</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -665,37 +665,37 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>8.631161734632511E-19</v>
+        <v>7.701652091758798E-18</v>
       </c>
       <c r="C3">
-        <v>0.02939767069526356</v>
+        <v>0.02939698724424735</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>6.712810903841118E-18</v>
       </c>
       <c r="E3">
-        <v>4.756645875904788E-18</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.686918612842286E-18</v>
+        <v>8.979297209403466E-19</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.186457532888869E-18</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.470141166007541E-18</v>
       </c>
       <c r="I3">
-        <v>6.337242259128905E-18</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.343111028873608E-17</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6.096408937093663E-18</v>
       </c>
       <c r="L3">
-        <v>4.754372729482015E-18</v>
+        <v>2.895233410565987E-18</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -704,37 +704,37 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.578169769265103E-17</v>
+        <v>1.064582289679651E-17</v>
       </c>
       <c r="P3">
-        <v>0.2899027603125315</v>
+        <v>0.2898999087064649</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>8.027887118200895E-18</v>
+        <v>1.819095437208414E-17</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5.267163681731703E-18</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>5.540343443551006E-19</v>
       </c>
       <c r="U3">
-        <v>3.046942775519575E-18</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.955026839113713E-18</v>
       </c>
       <c r="W3">
-        <v>0.1818534224937264</v>
+        <v>0.1818532946291848</v>
       </c>
       <c r="X3">
-        <v>0.0152239057920984</v>
+        <v>0.01522362558891131</v>
       </c>
       <c r="Y3">
-        <v>0.4836222407063802</v>
+        <v>0.4836261838311917</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -742,76 +742,76 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>9.726655443471237E-18</v>
       </c>
       <c r="C4">
-        <v>0.08467473440214926</v>
+        <v>0.08467379786954787</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.459088106319995E-17</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.965432120625444E-17</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5.890529448978059E-18</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.18795943387749E-17</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.942699581000497E-18</v>
+        <v>1.594021372724971E-17</v>
       </c>
       <c r="K4">
-        <v>1.550997755070683E-17</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.07664388007511E-18</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.018782677547665E-18</v>
+        <v>7.588265897332662E-18</v>
       </c>
       <c r="N4">
-        <v>2.432674349867684E-17</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>6.04115098420464E-17</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.26304965730389</v>
+        <v>0.2630456340899022</v>
       </c>
       <c r="Q4">
-        <v>6.452523310947143E-17</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>9.061215381900937E-17</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3.150111256192077E-17</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>8.469902007876388E-19</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.332209144794897E-17</v>
+        <v>1.427774342811265E-19</v>
       </c>
       <c r="W4">
-        <v>0.2357202533687653</v>
+        <v>0.235720068933647</v>
       </c>
       <c r="X4">
-        <v>0.02037292374787022</v>
+        <v>0.02037255381327404</v>
       </c>
       <c r="Y4">
-        <v>0.396182431177325</v>
+        <v>0.3961879452936293</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -819,76 +819,76 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>8.392145037916479E-17</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1375340683994598</v>
+        <v>0.1375328806254813</v>
       </c>
       <c r="D5">
-        <v>3.879137849638749E-17</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.817472095911953E-17</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>7.063884988039267E-18</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.244423826899858E-17</v>
+        <v>1.234960440556743E-17</v>
       </c>
       <c r="I5">
-        <v>2.01488499572237E-17</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.668308455257001E-17</v>
       </c>
       <c r="K5">
-        <v>1.299026450502638E-17</v>
+        <v>6.967345300476795E-18</v>
       </c>
       <c r="L5">
-        <v>3.350773182813049E-17</v>
+        <v>3.179578680863166E-17</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.44635631272233E-16</v>
+        <v>3.483710546656671E-18</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>4.285380193503655E-17</v>
       </c>
       <c r="P5">
-        <v>0.2374416744066139</v>
+        <v>0.2374364118943627</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.08102398600355E-18</v>
       </c>
       <c r="R5">
-        <v>1.746323374123953E-17</v>
+        <v>8.689575040481601E-18</v>
       </c>
       <c r="S5">
-        <v>5.151226415496789E-17</v>
+        <v>1.670120146188045E-17</v>
       </c>
       <c r="T5">
-        <v>2.838134357463214E-17</v>
+        <v>5.903225450282633E-18</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>7.568950451264162E-18</v>
       </c>
       <c r="V5">
-        <v>4.015413410871041E-18</v>
+        <v>1.89505321635202E-17</v>
       </c>
       <c r="W5">
-        <v>0.2868934129287957</v>
+        <v>0.2868931921843796</v>
       </c>
       <c r="X5">
-        <v>0.02528902356808581</v>
+        <v>0.02528853343816349</v>
       </c>
       <c r="Y5">
-        <v>0.3128418206970443</v>
+        <v>0.312848981857613</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -896,58 +896,58 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.581655518390845E-17</v>
       </c>
       <c r="C6">
-        <v>0.1890213419928756</v>
+        <v>0.1890200088716408</v>
       </c>
       <c r="D6">
-        <v>2.215630011457676E-17</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3.341877282340199E-18</v>
+        <v>1.516539850023149E-17</v>
       </c>
       <c r="F6">
-        <v>2.711991318548696E-17</v>
+        <v>4.864691683929947E-17</v>
       </c>
       <c r="G6">
-        <v>6.616506656425324E-18</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.070403222745195E-18</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.38257035145054E-18</v>
+        <v>1.312441480554709E-17</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.672255619411511E-18</v>
+        <v>7.177877807623436E-18</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.318200098116195E-17</v>
+        <v>4.09080483875538E-17</v>
       </c>
       <c r="P6">
-        <v>0.2126774582680514</v>
+        <v>0.2126715166787288</v>
       </c>
       <c r="Q6">
-        <v>3.160059046863817E-17</v>
+        <v>2.267770609997036E-17</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>2.163185971240231E-17</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -956,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>1.206038740842871E-17</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.3363423521159333</v>
+        <v>0.3363421097332384</v>
       </c>
       <c r="X6">
-        <v>0.03008089659577208</v>
+        <v>0.03008035524464333</v>
       </c>
       <c r="Y6">
-        <v>0.2318779510273676</v>
+        <v>0.2318860094717487</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -973,76 +973,76 @@
         <v>29</v>
       </c>
       <c r="B7">
-        <v>8.713185528307503E-17</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2398523449353037</v>
+        <v>0.2398516513968968</v>
       </c>
       <c r="D7">
-        <v>4.152894561160189E-17</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.531477364646455E-17</v>
       </c>
       <c r="F7">
-        <v>1.142713060808394E-18</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.864607220914436E-18</v>
       </c>
       <c r="H7">
-        <v>2.655712170690186E-19</v>
+        <v>3.984098350035366E-17</v>
       </c>
       <c r="I7">
-        <v>2.00707095662386E-18</v>
+        <v>1.634090141173035E-17</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.192840689862613E-17</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>4.792115287196E-18</v>
+        <v>1.25001199785065E-17</v>
       </c>
       <c r="M7">
-        <v>5.007261655798592E-18</v>
+        <v>1.491416387818126E-17</v>
       </c>
       <c r="N7">
-        <v>2.836126978787808E-17</v>
+        <v>1.349910587369218E-17</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.213884193568604E-17</v>
       </c>
       <c r="P7">
-        <v>0.1896536609588173</v>
+        <v>0.1896512726580019</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>8.89123272998652E-18</v>
+        <v>1.883504257525343E-17</v>
       </c>
       <c r="S7">
-        <v>1.009284747111341E-17</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>3.779213462260746E-17</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.138881275170886E-17</v>
       </c>
       <c r="V7">
-        <v>6.992024220255038E-18</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.384640602476065</v>
+        <v>0.3846404263611083</v>
       </c>
       <c r="X7">
-        <v>0.0349028909923068</v>
+        <v>0.03490269098912958</v>
       </c>
       <c r="Y7">
-        <v>0.1509505006375071</v>
+        <v>0.1509539585948633</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1050,13 +1050,13 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>9.112653402607061E-17</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2866375766482741</v>
+        <v>0.2866367930411765</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6.994247031219617E-17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1065,46 +1065,46 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.727092402559333E-17</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.186826632210031E-17</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.070147843725751E-17</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.022791160616409E-19</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.129204752188643E-17</v>
       </c>
       <c r="L8">
-        <v>2.660958325846125E-18</v>
+        <v>7.010245008053245E-18</v>
       </c>
       <c r="M8">
-        <v>1.230195233937949E-17</v>
+        <v>1.438514714746312E-17</v>
       </c>
       <c r="N8">
-        <v>4.409930411471837E-17</v>
+        <v>3.922559450195117E-17</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3.783292692568998E-17</v>
       </c>
       <c r="P8">
-        <v>0.1478659748893933</v>
+        <v>0.147863137752823</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.893946126674484E-17</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2.723931335632416E-17</v>
+        <v>2.037557788277885E-17</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>8.33014076186563E-18</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0.4314448371184754</v>
+        <v>0.4314446820967312</v>
       </c>
       <c r="X8">
-        <v>0.03794771139137759</v>
+        <v>0.03794748079517585</v>
       </c>
       <c r="Y8">
-        <v>0.09610389995247966</v>
+        <v>0.09610790631409327</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1127,28 +1127,28 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>9.044738331180093E-17</v>
       </c>
       <c r="C9">
-        <v>0.3389733474259486</v>
+        <v>0.338973023235386</v>
       </c>
       <c r="D9">
-        <v>1.971150057032075E-16</v>
+        <v>1.713567325520728E-17</v>
       </c>
       <c r="E9">
-        <v>1.996992324623216E-17</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.840206822712163E-18</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.576137162007242E-18</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>9.839409197070733E-18</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1157,28 +1157,28 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.405848051966993E-18</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>7.808400969065966E-18</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4.901383894089207E-18</v>
+        <v>6.387507743384521E-18</v>
       </c>
       <c r="O9">
-        <v>8.621552598430095E-18</v>
+        <v>1.02442131963463E-17</v>
       </c>
       <c r="P9">
-        <v>0.138737441787492</v>
+        <v>0.1387376404823959</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.41399572199307E-18</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.178166153458507E-17</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.4784588323843281</v>
+        <v>0.4784588891580178</v>
       </c>
       <c r="X9">
-        <v>0.04383037840223161</v>
+        <v>0.0438304471242004</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1204,55 +1204,55 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <v>1.13021191166956E-16</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.378251265313821</v>
+        <v>0.3782509697043549</v>
       </c>
       <c r="D10">
-        <v>1.106913963359843E-16</v>
+        <v>6.833178846848206E-18</v>
       </c>
       <c r="E10">
-        <v>1.530794949046053E-17</v>
+        <v>4.837569223117074E-18</v>
       </c>
       <c r="F10">
-        <v>1.207442675909956E-17</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2.12990135263902E-17</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7.904881531457945E-18</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.098656890013338E-18</v>
       </c>
       <c r="K10">
-        <v>1.733640718568009E-17</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.327584384192532E-18</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.083437052431927E-17</v>
+        <v>1.136324355266035E-17</v>
       </c>
       <c r="O10">
-        <v>1.911276396686516E-18</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.05738110509149438</v>
+        <v>0.05738113565468517</v>
       </c>
       <c r="Q10">
-        <v>2.950083355465359E-17</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>5.884043571212995E-18</v>
+        <v>2.094149212021198E-17</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1261,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1.202052831033082E-17</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>2.262526111545738E-17</v>
       </c>
       <c r="W10">
-        <v>0.5213236598282528</v>
+        <v>0.5213237803761603</v>
       </c>
       <c r="X10">
-        <v>0.0430439697664315</v>
+        <v>0.04304411426479959</v>
       </c>
       <c r="Y10">
-        <v>2.336153875295442E-17</v>
+        <v>2.09122608930112E-17</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1281,76 +1281,76 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>1.015948218766245E-16</v>
+        <v>7.445902917171257E-17</v>
       </c>
       <c r="C11">
-        <v>0.4408038734199384</v>
+        <v>0.4408037078213489</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.244704775164735E-16</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.782063010296884E-17</v>
       </c>
       <c r="F11">
-        <v>2.473124169741644E-17</v>
+        <v>1.168735237529379E-17</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.298238463385286E-19</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.8928179901356E-17</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.1898247991344E-17</v>
+        <v>5.453221684331105E-19</v>
       </c>
       <c r="M11">
-        <v>1.520805802332876E-18</v>
+        <v>6.37839379190408E-20</v>
       </c>
       <c r="N11">
-        <v>1.156062052144092E-17</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.722823702318023E-17</v>
       </c>
       <c r="P11">
-        <v>1.41233187033588E-17</v>
+        <v>1.725205982482175E-17</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>8.613713368773706E-19</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>7.032429874098576E-18</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2.969449805655019E-17</v>
+        <v>1.329475621138643E-17</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1.131038909022445E-17</v>
+        <v>1.719763795796066E-17</v>
       </c>
       <c r="W11">
-        <v>0.523358508500922</v>
+        <v>0.523358564970917</v>
       </c>
       <c r="X11">
-        <v>0.03583761807913972</v>
+        <v>0.03583772720773398</v>
       </c>
       <c r="Y11">
-        <v>4.946034357213681E-18</v>
+        <v>5.260826148779438E-18</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1358,31 +1358,31 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>1.348667447429604E-16</v>
+        <v>1.439211654672157E-16</v>
       </c>
       <c r="C12">
-        <v>0.540069981976715</v>
+        <v>0.5400698612003598</v>
       </c>
       <c r="D12">
-        <v>1.388083985654336E-16</v>
+        <v>1.782102712389429E-16</v>
       </c>
       <c r="E12">
-        <v>3.013704377875544E-17</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>7.139139877399725E-17</v>
       </c>
       <c r="G12">
-        <v>4.891109780744017E-17</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1.224134745490701E-17</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>8.75275685218813E-18</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.326466860379898E-18</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1394,40 +1394,40 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.110369151380071E-17</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.812262022571644E-18</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.344900627677451E-18</v>
       </c>
       <c r="Q12">
-        <v>3.472862384930493E-18</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>7.739276647306625E-18</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.655723096201522E-17</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>9.195001190840126E-18</v>
+        <v>1.712259359455061E-17</v>
       </c>
       <c r="W12">
-        <v>0.443128920854948</v>
+        <v>0.4431289521261441</v>
       </c>
       <c r="X12">
-        <v>0.0168010971683369</v>
+        <v>0.01680118667349597</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1.075290583119827E-17</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1438,31 +1438,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6217857518298329</v>
+        <v>0.6217856652160594</v>
       </c>
       <c r="D13">
-        <v>2.258093218078921E-17</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.881417666434933E-17</v>
+        <v>1.659473368409598E-17</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.417350811694725E-17</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.345817068041331E-17</v>
       </c>
       <c r="I13">
-        <v>1.071214091916713E-17</v>
+        <v>1.20466083863917E-17</v>
       </c>
       <c r="J13">
-        <v>4.046770396422485E-18</v>
+        <v>1.517584761832662E-17</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.579540373284634E-17</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1471,40 +1471,40 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.331080506016874E-17</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>4.172695370637841E-19</v>
       </c>
       <c r="Q13">
-        <v>1.738351590917826E-17</v>
+        <v>2.044705764078622E-17</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>1.014928752571665E-17</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>4.116004673085401E-21</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>4.604351941211191E-18</v>
+        <v>1.262915850455964E-17</v>
       </c>
       <c r="V13">
-        <v>3.12541030804662E-18</v>
+        <v>1.754679871680982E-17</v>
       </c>
       <c r="W13">
-        <v>0.3772189748208715</v>
+        <v>0.3772189665565222</v>
       </c>
       <c r="X13">
-        <v>0.0009952733492958744</v>
+        <v>0.0009953682274183532</v>
       </c>
       <c r="Y13">
-        <v>1.218314770828693E-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1512,76 +1512,76 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3.899813385165877E-16</v>
       </c>
       <c r="C14">
-        <v>0.699033049271427</v>
+        <v>0.6990329635239787</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3.263882786960866E-16</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.367884237826839E-16</v>
       </c>
       <c r="G14">
-        <v>2.449887088772275E-17</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3.33927168338929E-17</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>4.677583740051085E-17</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.9969785718754E-17</v>
+        <v>4.57266644804527E-17</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.231176084262787E-17</v>
+        <v>2.375695916928109E-17</v>
       </c>
       <c r="M14">
-        <v>1.303343291368854E-17</v>
+        <v>2.542053187768854E-17</v>
       </c>
       <c r="N14">
-        <v>5.166190899590597E-18</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.947465700024256E-18</v>
+        <v>2.3676831852155E-18</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1.504946047150688E-17</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>8.730594684989804E-18</v>
       </c>
       <c r="S14">
-        <v>1.742445171225483E-17</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1.663840513720284E-17</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>7.991892811630943E-18</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>7.714066004931532E-18</v>
+        <v>2.968957793185021E-17</v>
       </c>
       <c r="W14">
-        <v>0.3009669507285732</v>
+        <v>0.3009670364760206</v>
       </c>
       <c r="X14">
-        <v>1.549321659251503E-17</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>2.469237995532905E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1589,52 +1589,52 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>3.362938903817525E-16</v>
+        <v>7.413666732534991E-17</v>
       </c>
       <c r="C15">
-        <v>0.7689279553551998</v>
+        <v>0.768927902645539</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3.810926396038466E-16</v>
       </c>
       <c r="E15">
-        <v>1.784960606255117E-16</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5.810880674566224E-18</v>
       </c>
       <c r="G15">
-        <v>5.876922408053721E-17</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>6.773782068430256E-17</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3.588980538401449E-17</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.430307418506023E-17</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>5.063311676335437E-20</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.355064423010239E-17</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.847035353832391E-17</v>
       </c>
       <c r="N15">
-        <v>1.066410542359736E-17</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>9.360521717772994E-18</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>2.596321451690453E-17</v>
+        <v>4.550242106642911E-17</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1.665924947177305E-18</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1643,16 +1643,16 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.530146133207703E-17</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>2.073517768871337E-17</v>
       </c>
       <c r="W15">
-        <v>0.2310720446447998</v>
+        <v>0.2310720973544609</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>8.007973430744131E-16</v>
       </c>
       <c r="C16">
-        <v>0.8338165072624658</v>
+        <v>0.8338164812805269</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3.598884802751845E-16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1684,40 +1684,40 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.639675828034383E-17</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.442052453528114E-17</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>2.102586282026004E-17</v>
+        <v>1.968443026068092E-17</v>
       </c>
       <c r="K16">
-        <v>1.406620006553283E-17</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3.107817189548722E-18</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>9.824422848454679E-17</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.418833492723647E-18</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>5.549399208529822E-18</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.215710323006062E-17</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>6.376950397997274E-18</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>3.522168024142492E-19</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1726,16 +1726,16 @@
         <v>0</v>
       </c>
       <c r="V16">
-        <v>5.74123699874428E-17</v>
+        <v>1.447204427490662E-17</v>
       </c>
       <c r="W16">
-        <v>0.1661834927375345</v>
+        <v>0.1661835187194724</v>
       </c>
       <c r="X16">
-        <v>5.409729479012628E-17</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1.22487945466009E-17</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1743,76 +1743,76 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>4.829192099149503E-16</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.8952031513693228</v>
+        <v>0.895203148062771</v>
       </c>
       <c r="D17">
-        <v>4.352638986781203E-16</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>3.805885914760457E-16</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.870144579741259E-16</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>2.064592967835021E-17</v>
+        <v>4.235398592188353E-17</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.512826202876587E-17</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.00918041243918E-17</v>
       </c>
       <c r="J17">
-        <v>1.009354689934183E-17</v>
+        <v>4.426333187728155E-17</v>
       </c>
       <c r="K17">
-        <v>3.453701947929671E-18</v>
+        <v>3.822487370097505E-17</v>
       </c>
       <c r="L17">
-        <v>8.142452827455851E-18</v>
+        <v>2.209419001170097E-17</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.197151218491763E-17</v>
       </c>
       <c r="N17">
-        <v>4.128363690417722E-18</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.204720349742187E-17</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.158380549998949E-17</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.095206111349837E-17</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>4.356073361068548E-18</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>2.403956718152456E-17</v>
+        <v>1.82919084375603E-17</v>
       </c>
       <c r="T17">
-        <v>1.436390982503869E-17</v>
+        <v>1.131823685673176E-17</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>2.416857369952675E-17</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>2.882073780835317E-16</v>
       </c>
       <c r="W17">
-        <v>0.1047968486306762</v>
+        <v>0.1047968519372296</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>7.556060370828689E-17</v>
       </c>
       <c r="Y17">
-        <v>8.847889080358103E-18</v>
+        <v>1.96818895040046E-17</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1820,19 +1820,19 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>4.116906852577727E-16</v>
       </c>
       <c r="C18">
-        <v>0.9540002218229435</v>
+        <v>0.9540002383636604</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1.720252622595592E-17</v>
       </c>
       <c r="E18">
-        <v>1.552942281506658E-16</v>
+        <v>2.497998274764489E-17</v>
       </c>
       <c r="F18">
-        <v>6.061380601281705E-16</v>
+        <v>3.204550807716664E-17</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>9.253237830251292E-18</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1880,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>6.236212857864101E-16</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>0.04599977817705654</v>
+        <v>0.04599976163633945</v>
       </c>
       <c r="X18">
-        <v>4.018499171764812E-17</v>
+        <v>3.929568658918982E-17</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1.561215821957994E-18</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1897,76 +1897,76 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>2.464552313420905E-15</v>
+        <v>1.451566669198319E-15</v>
       </c>
       <c r="C19">
-        <v>0.9485259915988136</v>
+        <v>0.9485257606790807</v>
       </c>
       <c r="D19">
-        <v>1.045524684281441E-14</v>
+        <v>6.107510573136866E-15</v>
       </c>
       <c r="E19">
-        <v>3.100818765225563E-16</v>
+        <v>7.774134510040429E-16</v>
       </c>
       <c r="F19">
-        <v>1.546092839332982E-15</v>
+        <v>7.54198080557619E-16</v>
       </c>
       <c r="G19">
-        <v>5.431913522469094E-16</v>
+        <v>1.469170162993275E-17</v>
       </c>
       <c r="H19">
-        <v>3.182526210295673E-16</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.846288590261263E-16</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.893831093752769E-16</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.074935481215554E-16</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>4.054030344812518E-17</v>
+        <v>1.269435252365739E-16</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.771154723469349E-16</v>
+        <v>4.951306715450612E-17</v>
       </c>
       <c r="Q19">
-        <v>3.218148383585306E-17</v>
+        <v>5.073904146653831E-17</v>
       </c>
       <c r="R19">
-        <v>4.619022496454817E-17</v>
+        <v>2.639825688822951E-18</v>
       </c>
       <c r="S19">
-        <v>7.5947339434539E-17</v>
+        <v>2.640918472696101E-17</v>
       </c>
       <c r="T19">
-        <v>1.118617481563581E-16</v>
+        <v>1.072969136623656E-16</v>
       </c>
       <c r="U19">
-        <v>2.35429792386601E-16</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>0.05147400840116789</v>
+        <v>0.05147423932091125</v>
       </c>
       <c r="W19">
-        <v>4.886868202641245E-16</v>
+        <v>5.914721989657653E-17</v>
       </c>
       <c r="X19">
-        <v>8.900688406718621E-16</v>
+        <v>5.430194260382027E-16</v>
       </c>
       <c r="Y19">
-        <v>1.579886405135741E-16</v>
+        <v>2.256503157496577E-17</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1974,73 +1974,73 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>1.441900550324052E-15</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.7923074622290028</v>
+        <v>0.7923071971144183</v>
       </c>
       <c r="D20">
-        <v>2.648771744425589E-14</v>
+        <v>1.428995727930226E-14</v>
       </c>
       <c r="E20">
-        <v>2.464943991782208E-16</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>8.452251534159722E-16</v>
+        <v>1.096199698235062E-16</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.327457429850272E-16</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.668993405635362E-18</v>
       </c>
       <c r="I20">
-        <v>7.119871703934879E-17</v>
+        <v>1.926201571734975E-17</v>
       </c>
       <c r="J20">
-        <v>1.100276788024296E-18</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.335954674698144E-18</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>3.839792814623816E-16</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.70851631146426E-17</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>6.218511205336851E-17</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>2.032454179871622E-17</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>4.840643685727486E-17</v>
+        <v>1.106238364411458E-16</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>6.607294581822632E-18</v>
+        <v>1.121427782738096E-16</v>
       </c>
       <c r="V20">
-        <v>0.2076925377709679</v>
+        <v>0.2076928028855672</v>
       </c>
       <c r="W20">
-        <v>1.113094607084003E-16</v>
+        <v>4.587557916184305E-17</v>
       </c>
       <c r="X20">
-        <v>1.18105601713279E-16</v>
+        <v>2.875905273471042E-15</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2051,31 +2051,31 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>2.301542007431291E-16</v>
+        <v>2.987239575518643E-16</v>
       </c>
       <c r="C21">
-        <v>0.686619486830529</v>
+        <v>0.6866192258356338</v>
       </c>
       <c r="D21">
-        <v>3.081452483877432E-16</v>
+        <v>3.014088859367047E-16</v>
       </c>
       <c r="E21">
-        <v>4.520928090106334E-17</v>
+        <v>2.920119024198655E-16</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.980935989811514E-16</v>
       </c>
       <c r="G21">
-        <v>1.03737563490441E-16</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>7.62852256699291E-17</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>4.1990555701497E-17</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.141009147055685E-17</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2084,43 +2084,43 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>9.129708184405709E-16</v>
+        <v>1.068233950957633E-16</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.771390595400068E-17</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.191504742181347E-17</v>
       </c>
       <c r="P21">
-        <v>2.733010945041957E-17</v>
+        <v>8.347344647978354E-18</v>
       </c>
       <c r="Q21">
-        <v>4.757768906692286E-19</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>2.183455968863367E-17</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>2.456878204237055E-17</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>3.813655579148993E-17</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>5.513820110877825E-17</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0.3133805131694701</v>
+        <v>0.3133807741643651</v>
       </c>
       <c r="W21">
-        <v>1.033292936098644E-16</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>9.99522638276364E-17</v>
       </c>
       <c r="Y21">
-        <v>2.107900629968283E-17</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Efficient_Frontier/portfolio_weights.xlsx
+++ b/Output_Efficient_Frontier/portfolio_weights.xlsx
@@ -588,76 +588,76 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4.647548676061349E-19</v>
       </c>
       <c r="C2">
-        <v>7.264686324470972E-18</v>
+        <v>9.970468367384498E-18</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.760749249696346E-18</v>
+        <v>2.064286513706539E-18</v>
       </c>
       <c r="F2">
-        <v>3.201032525128665E-18</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.315666783770001E-18</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5.854444109100232E-18</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.028645651146599E-17</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.081879409096753E-18</v>
+        <v>1.06574926137185E-17</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.297653256384488E-17</v>
       </c>
       <c r="N2">
-        <v>1.639307355783239E-16</v>
+        <v>4.87329431712215E-17</v>
       </c>
       <c r="O2">
-        <v>1.177963651011785E-17</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.4164777514271092</v>
+        <v>0.424863822851583</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>5.752397006227321E-18</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>9.753308707158946E-18</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.556087772031116E-18</v>
+        <v>8.750705042327882E-18</v>
       </c>
       <c r="V2">
-        <v>1.215216598835599E-18</v>
+        <v>1.079733907679916E-17</v>
       </c>
       <c r="W2">
-        <v>0.0890799023771337</v>
+        <v>0.09244891499237098</v>
       </c>
       <c r="X2">
-        <v>0.01376072189690682</v>
+        <v>0.01523262577108694</v>
       </c>
       <c r="Y2">
-        <v>0.4806816242988503</v>
+        <v>0.4674546363849593</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -665,76 +665,76 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>7.701652091758798E-18</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02939698724424735</v>
+        <v>0.02723511654315893</v>
       </c>
       <c r="D3">
-        <v>6.712810903841118E-18</v>
+        <v>3.727932073265892E-18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>8.979297209403466E-19</v>
+        <v>5.774835576142546E-18</v>
       </c>
       <c r="G3">
-        <v>5.186457532888869E-18</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.470141166007541E-18</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.45412051219836E-18</v>
       </c>
       <c r="K3">
-        <v>6.096408937093663E-18</v>
+        <v>7.971970716306332E-18</v>
       </c>
       <c r="L3">
-        <v>2.895233410565987E-18</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.329754193310726E-18</v>
       </c>
       <c r="O3">
-        <v>1.064582289679651E-17</v>
+        <v>1.652453070974687E-17</v>
       </c>
       <c r="P3">
-        <v>0.2898999087064649</v>
+        <v>0.2976846289677795</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>8.378546530988393E-18</v>
       </c>
       <c r="R3">
-        <v>1.819095437208414E-17</v>
+        <v>1.009108160135974E-17</v>
       </c>
       <c r="S3">
-        <v>5.267163681731703E-18</v>
+        <v>6.036568756844125E-18</v>
       </c>
       <c r="T3">
-        <v>5.540343443551006E-19</v>
+        <v>8.589526059868586E-18</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>1.955026839113713E-18</v>
+        <v>2.869091108819339E-19</v>
       </c>
       <c r="W3">
-        <v>0.1818532946291848</v>
+        <v>0.1903654755579513</v>
       </c>
       <c r="X3">
-        <v>0.01522362558891131</v>
+        <v>0.01752937336623385</v>
       </c>
       <c r="Y3">
-        <v>0.4836261838311917</v>
+        <v>0.4671854055648765</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -742,76 +742,76 @@
         <v>26</v>
       </c>
       <c r="B4">
-        <v>9.726655443471237E-18</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08467379786954787</v>
+        <v>0.0820546126022404</v>
       </c>
       <c r="D4">
-        <v>2.459088106319995E-17</v>
+        <v>1.353990904133048E-17</v>
       </c>
       <c r="E4">
-        <v>2.965432120625444E-17</v>
+        <v>1.119538803546206E-17</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.378300778378824E-17</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.116166667482237E-18</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.594021372724971E-17</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.298213784556353E-17</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.036021354946931E-17</v>
       </c>
       <c r="M4">
-        <v>7.588265897332662E-18</v>
+        <v>3.10695936377175E-18</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.129915190673269E-17</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3.428029717008647E-18</v>
       </c>
       <c r="P4">
-        <v>0.2630456340899022</v>
+        <v>0.2727742637632458</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>6.439746126037319E-17</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.208314953946883E-17</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.059738277470052E-17</v>
       </c>
       <c r="V4">
-        <v>1.427774342811265E-19</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.235720068933647</v>
+        <v>0.2466404432523769</v>
       </c>
       <c r="X4">
-        <v>0.02037255381327404</v>
+        <v>0.02329095517544235</v>
       </c>
       <c r="Y4">
-        <v>0.3961879452936293</v>
+        <v>0.3752397252066944</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -822,73 +822,73 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1375328806254813</v>
+        <v>0.1391636417985553</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.256167725338707E-17</v>
       </c>
       <c r="E5">
-        <v>2.817472095911953E-17</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.587449408538291E-17</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.100474444089134E-18</v>
       </c>
       <c r="H5">
-        <v>1.234960440556743E-17</v>
+        <v>7.410022868186417E-18</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.758720401545812E-18</v>
       </c>
       <c r="J5">
-        <v>1.668308455257001E-17</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.967345300476795E-18</v>
+        <v>3.215663215721464E-18</v>
       </c>
       <c r="L5">
-        <v>3.179578680863166E-17</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.227211253917831E-18</v>
       </c>
       <c r="N5">
-        <v>3.483710546656671E-18</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.285380193503655E-17</v>
+        <v>1.894291818004756E-18</v>
       </c>
       <c r="P5">
-        <v>0.2374364118943627</v>
+        <v>0.2698125559238506</v>
       </c>
       <c r="Q5">
-        <v>2.08102398600355E-18</v>
+        <v>1.582953036389416E-17</v>
       </c>
       <c r="R5">
-        <v>8.689575040481601E-18</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1.670120146188045E-17</v>
+        <v>3.195334424987364E-18</v>
       </c>
       <c r="T5">
-        <v>5.903225450282633E-18</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>7.568950451264162E-18</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1.89505321635202E-17</v>
+        <v>3.450901530985174E-18</v>
       </c>
       <c r="W5">
-        <v>0.2868931921843796</v>
+        <v>0.298627449707839</v>
       </c>
       <c r="X5">
-        <v>0.02528853343816349</v>
+        <v>0.03048709278745544</v>
       </c>
       <c r="Y5">
-        <v>0.312848981857613</v>
+        <v>0.2619092597822998</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -896,52 +896,52 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>3.581655518390845E-17</v>
+        <v>1.574495433916853E-17</v>
       </c>
       <c r="C6">
-        <v>0.1890200088716408</v>
+        <v>0.1862025985197402</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.516539850023149E-17</v>
+        <v>2.333331377989404E-17</v>
       </c>
       <c r="F6">
-        <v>4.864691683929947E-17</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.718370676076316E-17</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.611574603634015E-17</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5.836244037127023E-18</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.895923564027284E-17</v>
       </c>
       <c r="K6">
-        <v>1.312441480554709E-17</v>
+        <v>1.750085666333775E-17</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.5286713706831E-17</v>
       </c>
       <c r="M6">
-        <v>7.177877807623436E-18</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.09080483875538E-17</v>
+        <v>3.641770741054019E-17</v>
       </c>
       <c r="P6">
-        <v>0.2126715166787288</v>
+        <v>0.2294717190365793</v>
       </c>
       <c r="Q6">
-        <v>2.267770609997036E-17</v>
+        <v>1.175067983550941E-17</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -953,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>3.379247460194359E-18</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.222362964370664E-17</v>
       </c>
       <c r="W6">
-        <v>0.3363421097332384</v>
+        <v>0.3518041857621959</v>
       </c>
       <c r="X6">
-        <v>0.03008035524464333</v>
+        <v>0.03444500772304876</v>
       </c>
       <c r="Y6">
-        <v>0.2318860094717487</v>
+        <v>0.198076488958436</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -976,52 +976,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2398516513968968</v>
+        <v>0.2329106710862488</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.531477364646455E-17</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.58040662547131E-17</v>
       </c>
       <c r="G7">
-        <v>2.864607220914436E-18</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3.984098350035366E-17</v>
+        <v>1.865148236427812E-18</v>
       </c>
       <c r="I7">
-        <v>1.634090141173035E-17</v>
+        <v>8.40297203981013E-18</v>
       </c>
       <c r="J7">
-        <v>2.192840689862613E-17</v>
+        <v>3.12162056593453E-17</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.25001199785065E-17</v>
+        <v>1.753652831005325E-17</v>
       </c>
       <c r="M7">
-        <v>1.491416387818126E-17</v>
+        <v>1.214219898546424E-17</v>
       </c>
       <c r="N7">
-        <v>1.349910587369218E-17</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.213884193568604E-17</v>
+        <v>2.084038032081865E-17</v>
       </c>
       <c r="P7">
-        <v>0.1896512726580019</v>
+        <v>0.1871045814311096</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>3.694332368107016E-17</v>
       </c>
       <c r="R7">
-        <v>1.883504257525343E-17</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1030,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.138881275170886E-17</v>
+        <v>6.579733620845248E-18</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.3846404263611083</v>
+        <v>0.4015262407504406</v>
       </c>
       <c r="X7">
-        <v>0.03490269098912958</v>
+        <v>0.03798629428871856</v>
       </c>
       <c r="Y7">
-        <v>0.1509539585948633</v>
+        <v>0.1404722124434825</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1053,73 +1053,73 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2866367930411765</v>
+        <v>0.2855288830676781</v>
       </c>
       <c r="D8">
-        <v>6.994247031219617E-17</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.535717326746856E-17</v>
       </c>
       <c r="G8">
-        <v>1.727092402559333E-17</v>
+        <v>1.104916369773319E-17</v>
       </c>
       <c r="H8">
-        <v>3.186826632210031E-17</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3.070147843725751E-17</v>
+        <v>4.522974256388774E-18</v>
       </c>
       <c r="J8">
-        <v>5.022791160616409E-19</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.129204752188643E-17</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.010245008053245E-18</v>
+        <v>2.023261903066486E-18</v>
       </c>
       <c r="M8">
-        <v>1.438514714746312E-17</v>
+        <v>3.693610875051966E-18</v>
       </c>
       <c r="N8">
-        <v>3.922559450195117E-17</v>
+        <v>1.382843262667103E-18</v>
       </c>
       <c r="O8">
-        <v>3.783292692568998E-17</v>
+        <v>7.244372989941993E-18</v>
       </c>
       <c r="P8">
-        <v>0.147863137752823</v>
+        <v>0.1820522908322838</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.915026809654844E-17</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>8.181110138330126E-18</v>
       </c>
       <c r="S8">
-        <v>2.037557788277885E-17</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>8.33014076186563E-18</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>9.849846335696221E-18</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>5.597740940479633E-18</v>
       </c>
       <c r="W8">
-        <v>0.4314446820967312</v>
+        <v>0.4517635042808759</v>
       </c>
       <c r="X8">
-        <v>0.03794748079517585</v>
+        <v>0.04466274496434917</v>
       </c>
       <c r="Y8">
-        <v>0.09610790631409327</v>
+        <v>0.03599257685481316</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1127,19 +1127,19 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>9.044738331180093E-17</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.338973023235386</v>
+        <v>0.3289560090079853</v>
       </c>
       <c r="D9">
-        <v>1.713567325520728E-17</v>
+        <v>4.525412417316871E-17</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4.157122491850701E-17</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1157,28 +1157,28 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2.328609030586219E-17</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>6.387507743384521E-18</v>
+        <v>1.17082313301094E-17</v>
       </c>
       <c r="O9">
-        <v>1.02442131963463E-17</v>
+        <v>1.385017285447611E-18</v>
       </c>
       <c r="P9">
-        <v>0.1387376404823959</v>
+        <v>0.1256549251629304</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.177852944005251E-18</v>
       </c>
       <c r="R9">
-        <v>1.41399572199307E-18</v>
+        <v>2.522895131911906E-17</v>
       </c>
       <c r="S9">
-        <v>2.178166153458507E-17</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.4784588891580178</v>
+        <v>0.4987762961011074</v>
       </c>
       <c r="X9">
-        <v>0.0438304471242004</v>
+        <v>0.04661276972797681</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>4.462687365369747E-17</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1207,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3782509697043549</v>
+        <v>0.3672662164535064</v>
       </c>
       <c r="D10">
-        <v>6.833178846848206E-18</v>
+        <v>1.687404143664508E-17</v>
       </c>
       <c r="E10">
-        <v>4.837569223117074E-18</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.295273594275655E-17</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.098656890013338E-18</v>
+        <v>2.862625005856878E-18</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1237,43 +1237,43 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.661492033006953E-17</v>
       </c>
       <c r="N10">
-        <v>1.136324355266035E-17</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.05738113565468517</v>
+        <v>0.04316544063068291</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>3.181109394024495E-18</v>
       </c>
       <c r="R10">
-        <v>2.094149212021198E-17</v>
+        <v>6.548912392307593E-18</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>4.773802263887678E-19</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>2.686442152827983E-18</v>
       </c>
       <c r="V10">
-        <v>2.262526111545738E-17</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.5213237803761603</v>
+        <v>0.5435106518007554</v>
       </c>
       <c r="X10">
-        <v>0.04304411426479959</v>
+        <v>0.04605769111505562</v>
       </c>
       <c r="Y10">
-        <v>2.09122608930112E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1281,76 +1281,76 @@
         <v>33</v>
       </c>
       <c r="B11">
-        <v>7.445902917171257E-17</v>
+        <v>1.996716661786905E-17</v>
       </c>
       <c r="C11">
-        <v>0.4408037078213489</v>
+        <v>0.4450882358828684</v>
       </c>
       <c r="D11">
-        <v>1.244704775164735E-16</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.782063010296884E-17</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.168735237529379E-17</v>
+        <v>5.075858867960737E-19</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.298238463385286E-19</v>
+        <v>1.322126470275004E-17</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.837602266960899E-17</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.96796022395303E-17</v>
       </c>
       <c r="L11">
-        <v>5.453221684331105E-19</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>6.37839379190408E-20</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.2214036253862E-17</v>
       </c>
       <c r="O11">
-        <v>1.722823702318023E-17</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.725205982482175E-17</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>8.613713368773706E-19</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>7.032429874098576E-18</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1.329475621138643E-17</v>
+        <v>1.002763245876183E-17</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1.719763795796066E-17</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.523358564970917</v>
+        <v>0.519995972555708</v>
       </c>
       <c r="X11">
-        <v>0.03583772720773398</v>
+        <v>0.03491579156142376</v>
       </c>
       <c r="Y11">
-        <v>5.260826148779438E-18</v>
+        <v>1.866699289408301E-17</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1358,76 +1358,76 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>1.439211654672157E-16</v>
+        <v>2.044959455439786E-16</v>
       </c>
       <c r="C12">
-        <v>0.5400698612003598</v>
+        <v>0.5422847546421757</v>
       </c>
       <c r="D12">
-        <v>1.782102712389429E-16</v>
+        <v>1.268776411544046E-16</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>7.139139877399725E-17</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.15160598783894E-17</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.122650766858434E-17</v>
       </c>
       <c r="J12">
-        <v>4.326466860379898E-18</v>
+        <v>7.787773385765324E-18</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.659998653164384E-17</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.999454016812601E-18</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.82033849969621E-17</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.295223726936949E-18</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.090477591701741E-20</v>
       </c>
       <c r="P12">
-        <v>7.344900627677451E-18</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4.529418341516483E-18</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.133726495123447E-17</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1.655723096201522E-17</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1.712259359455061E-17</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>0.4431289521261441</v>
+        <v>0.4412298302704421</v>
       </c>
       <c r="X12">
-        <v>0.01680118667349597</v>
+        <v>0.01648541508738172</v>
       </c>
       <c r="Y12">
-        <v>1.075290583119827E-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1438,31 +1438,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6217856652160594</v>
+        <v>0.6231293044460496</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.372373518200792E-16</v>
       </c>
       <c r="E13">
-        <v>1.659473368409598E-17</v>
+        <v>6.275117342892399E-17</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.976196391623685E-17</v>
       </c>
       <c r="G13">
-        <v>1.417350811694725E-17</v>
+        <v>1.212963238225492E-17</v>
       </c>
       <c r="H13">
-        <v>1.345817068041331E-17</v>
+        <v>1.261807260780013E-17</v>
       </c>
       <c r="I13">
-        <v>1.20466083863917E-17</v>
+        <v>1.100223814690435E-17</v>
       </c>
       <c r="J13">
-        <v>1.517584761832662E-17</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.579540373284634E-17</v>
+        <v>2.715740638231E-17</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1471,40 +1471,40 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.331080506016874E-17</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>4.172695370637841E-19</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2.044705764078622E-17</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1.550851960074623E-17</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>8.539953073905499E-18</v>
       </c>
       <c r="U13">
-        <v>1.262915850455964E-17</v>
+        <v>1.179594772315103E-17</v>
       </c>
       <c r="V13">
-        <v>1.754679871680982E-17</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>0.3772189665565222</v>
+        <v>0.3758471146103775</v>
       </c>
       <c r="X13">
-        <v>0.0009953682274183532</v>
+        <v>0.001023580943572809</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1.775654504275914E-17</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1512,70 +1512,70 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>3.899813385165877E-16</v>
+        <v>2.003014115760203E-16</v>
       </c>
       <c r="C14">
-        <v>0.6990329635239787</v>
+        <v>0.6997314514098468</v>
       </c>
       <c r="D14">
-        <v>3.263882786960866E-16</v>
+        <v>2.092336982662239E-16</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.367884237826839E-16</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>6.193971578737354E-18</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>5.990683671396322E-18</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>9.177221618967001E-18</v>
       </c>
       <c r="J14">
-        <v>4.57266644804527E-17</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.99593157628038E-17</v>
       </c>
       <c r="L14">
-        <v>2.375695916928109E-17</v>
+        <v>1.520555510457585E-17</v>
       </c>
       <c r="M14">
-        <v>2.542053187768854E-17</v>
+        <v>1.16480167261078E-17</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>2.137530794336511E-18</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>2.3676831852155E-18</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.504946047150688E-17</v>
+        <v>7.201093753022718E-18</v>
       </c>
       <c r="R14">
-        <v>8.730594684989804E-18</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>7.677126269379635E-18</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2.318795845048931E-18</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>9.074730632349231E-18</v>
       </c>
       <c r="V14">
-        <v>2.968957793185021E-17</v>
+        <v>3.723179986497668E-17</v>
       </c>
       <c r="W14">
-        <v>0.3009670364760206</v>
+        <v>0.3002685485901527</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -1589,40 +1589,40 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>7.413666732534991E-17</v>
+        <v>1.011664840454728E-16</v>
       </c>
       <c r="C15">
-        <v>0.768927902645539</v>
+        <v>0.7692776362552972</v>
       </c>
       <c r="D15">
-        <v>3.810926396038466E-16</v>
+        <v>5.1998077108534E-18</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1.411214906908565E-16</v>
       </c>
       <c r="F15">
-        <v>5.810880674566224E-18</v>
+        <v>5.350609669276615E-17</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.908929499237846E-18</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.510847010311847E-17</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.691287004381326E-19</v>
       </c>
       <c r="J15">
-        <v>1.430307418506023E-17</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>5.063311676335437E-20</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.355064423010239E-17</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>3.847035353832391E-17</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1631,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>4.550242106642911E-17</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.665924947177305E-18</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1643,16 +1643,16 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1.530146133207703E-17</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15">
-        <v>2.073517768871337E-17</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>0.2310720973544609</v>
+        <v>0.2307223637447028</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>8.007973430744131E-16</v>
+        <v>3.561506847426226E-16</v>
       </c>
       <c r="C16">
-        <v>0.8338164812805269</v>
+        <v>0.8339682547886081</v>
       </c>
       <c r="D16">
-        <v>3.598884802751845E-16</v>
+        <v>3.29795314182665E-16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1681,22 +1681,22 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4.457768179731771E-17</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.879595764658733E-17</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.072841517702408E-17</v>
       </c>
       <c r="J16">
-        <v>1.968443026068092E-17</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2.4897925534438E-18</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.409162930176555E-17</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1705,37 +1705,37 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.549399208529822E-18</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.215710323006062E-17</v>
+        <v>1.995325611544292E-17</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>4.599036941005016E-18</v>
       </c>
       <c r="R16">
-        <v>6.376950397997274E-18</v>
+        <v>1.927075931819277E-17</v>
       </c>
       <c r="S16">
-        <v>3.522168024142492E-19</v>
+        <v>1.093807269957859E-17</v>
       </c>
       <c r="T16">
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>2.254160351379485E-17</v>
       </c>
       <c r="V16">
-        <v>1.447204427490662E-17</v>
+        <v>7.896752385830772E-17</v>
       </c>
       <c r="W16">
-        <v>0.1661835187194724</v>
+        <v>0.1660317452113917</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>3.277474089847207E-17</v>
       </c>
       <c r="Y16">
-        <v>1.22487945466009E-17</v>
+        <v>6.731865902191344E-18</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1743,76 +1743,76 @@
         <v>39</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.963910195203875E-16</v>
       </c>
       <c r="C17">
-        <v>0.895203148062771</v>
+        <v>0.8952459338202113</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.926073642972204E-16</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.187562513350165E-17</v>
       </c>
       <c r="G17">
-        <v>4.235398592188353E-17</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2.512826202876587E-17</v>
+        <v>8.16372429375505E-19</v>
       </c>
       <c r="I17">
-        <v>2.00918041243918E-17</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.426333187728155E-17</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3.822487370097505E-17</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>2.209419001170097E-17</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>4.197151218491763E-17</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8.617936418361625E-18</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.158593986554069E-17</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.55924766813378E-17</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>6.383072958730767E-18</v>
       </c>
       <c r="S17">
-        <v>1.82919084375603E-17</v>
+        <v>4.14560245685892E-18</v>
       </c>
       <c r="T17">
-        <v>1.131823685673176E-17</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>2.416857369952675E-17</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>2.882073780835317E-16</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.1047968519372296</v>
+        <v>0.1047540661797882</v>
       </c>
       <c r="X17">
-        <v>7.556060370828689E-17</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1.96818895040046E-17</v>
+        <v>2.421604814204957E-17</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1820,19 +1820,19 @@
         <v>40</v>
       </c>
       <c r="B18">
-        <v>4.116906852577727E-16</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.9540002383636604</v>
+        <v>0.9539915800168917</v>
       </c>
       <c r="D18">
-        <v>1.720252622595592E-17</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2.497998274764489E-17</v>
+        <v>2.567477986162811E-16</v>
       </c>
       <c r="F18">
-        <v>3.204550807716664E-17</v>
+        <v>6.554526731364503E-16</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.253237830251292E-18</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1880,16 +1880,16 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>5.083674059276435E-16</v>
       </c>
       <c r="W18">
-        <v>0.04599976163633945</v>
+        <v>0.0460084199831089</v>
       </c>
       <c r="X18">
-        <v>3.929568658918982E-17</v>
+        <v>1.731191321822443E-17</v>
       </c>
       <c r="Y18">
-        <v>1.561215821957994E-18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1897,76 +1897,76 @@
         <v>41</v>
       </c>
       <c r="B19">
-        <v>1.451566669198319E-15</v>
+        <v>9.006741335655641E-15</v>
       </c>
       <c r="C19">
-        <v>0.9485257606790807</v>
+        <v>0.9485403439920477</v>
       </c>
       <c r="D19">
-        <v>6.107510573136866E-15</v>
+        <v>2.121024082293229E-14</v>
       </c>
       <c r="E19">
-        <v>7.774134510040429E-16</v>
+        <v>2.237510873867645E-15</v>
       </c>
       <c r="F19">
-        <v>7.54198080557619E-16</v>
+        <v>2.143611342433875E-15</v>
       </c>
       <c r="G19">
-        <v>1.469170162993275E-17</v>
+        <v>6.605554370090684E-16</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.125272334344497E-15</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.006542198913099E-16</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.012632596776886E-16</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.729093380666401E-16</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.473046708687781E-16</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.994527512234862E-15</v>
       </c>
       <c r="N19">
-        <v>1.269435252365739E-16</v>
+        <v>3.190572553471635E-16</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.485673107567652E-16</v>
       </c>
       <c r="P19">
-        <v>4.951306715450612E-17</v>
+        <v>3.286067047945085E-16</v>
       </c>
       <c r="Q19">
-        <v>5.073904146653831E-17</v>
+        <v>2.372213931029331E-16</v>
       </c>
       <c r="R19">
-        <v>2.639825688822951E-18</v>
+        <v>2.571078066838257E-16</v>
       </c>
       <c r="S19">
-        <v>2.640918472696101E-17</v>
+        <v>2.171926495938877E-16</v>
       </c>
       <c r="T19">
-        <v>1.072969136623656E-16</v>
+        <v>2.550740805774681E-16</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>6.964648694123224E-16</v>
       </c>
       <c r="V19">
-        <v>0.05147423932091125</v>
+        <v>0.05145965600790556</v>
       </c>
       <c r="W19">
-        <v>5.914721989657653E-17</v>
+        <v>8.039412660028877E-16</v>
       </c>
       <c r="X19">
-        <v>5.430194260382027E-16</v>
+        <v>2.087104442461685E-15</v>
       </c>
       <c r="Y19">
-        <v>2.256503157496577E-17</v>
+        <v>2.398973677450392E-16</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1974,34 +1974,34 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>7.37519983523828E-17</v>
       </c>
       <c r="C20">
-        <v>0.7923071971144183</v>
+        <v>0.7921883846163099</v>
       </c>
       <c r="D20">
-        <v>1.428995727930226E-14</v>
+        <v>9.975081176413515E-17</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.096199698235062E-16</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1.327457429850272E-16</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>7.668993405635362E-18</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.926201571734975E-17</v>
+        <v>8.941798398930778E-18</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.198738745951943E-18</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.274145737319658E-18</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.326056352620623E-19</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2025,25 +2025,25 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>1.106238364411458E-16</v>
+        <v>3.672732532367893E-17</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1.121427782738096E-16</v>
+        <v>1.969403463137687E-17</v>
       </c>
       <c r="V20">
-        <v>0.2076928028855672</v>
+        <v>0.2078116153836901</v>
       </c>
       <c r="W20">
-        <v>4.587557916184305E-17</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>2.875905273471042E-15</v>
+        <v>3.216615854835003E-16</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1.592982021377876E-17</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2051,19 +2051,19 @@
         <v>43</v>
       </c>
       <c r="B21">
-        <v>2.987239575518643E-16</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6866192258356338</v>
+        <v>0.6530771565592489</v>
       </c>
       <c r="D21">
-        <v>3.014088859367047E-16</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2.920119024198655E-16</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2.980935989811514E-16</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2078,31 +2078,31 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.243606333438753E-17</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.276140520305796E-18</v>
       </c>
       <c r="M21">
-        <v>1.068233950957633E-16</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>2.771390595400068E-17</v>
+        <v>2.247954511516315E-17</v>
       </c>
       <c r="O21">
-        <v>1.191504742181347E-17</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>8.347344647978354E-18</v>
+        <v>2.723441961873164E-17</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>6.164633874458525E-18</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1.138837658980713E-17</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2111,16 +2111,16 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0.3133807741643651</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1.186711773076337E-18</v>
       </c>
       <c r="X21">
-        <v>9.99522638276364E-17</v>
+        <v>0.3469228434407538</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>4.628954200080802E-17</v>
       </c>
     </row>
   </sheetData>
